--- a/SDET_9_PRoject/testData/TestData.xlsx
+++ b/SDET_9_PRoject/testData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A143207D-4AA5-4506-A237-DE59CC4079F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F9C43563-836C-4E10-9A36-C6FA18C1A114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20790" windowHeight="11820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="161">
   <si>
     <t>TestID</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>Laptop_</t>
+  </si>
+  <si>
+    <t>453</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1272,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1378,7 @@
         <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>64</v>
